--- a/final assignment/data/optimize_results/results_scenario_1_seed_2.xlsx
+++ b/final assignment/data/optimize_results/results_scenario_1_seed_2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN13"/>
+  <dimension ref="A1:AN17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,103 +635,103 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>7</v>
       </c>
-      <c r="V2" t="n">
-        <v>4</v>
-      </c>
-      <c r="W2" t="n">
-        <v>5</v>
-      </c>
-      <c r="X2" t="n">
+      <c r="Y2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB2" t="n">
         <v>8</v>
       </c>
-      <c r="Y2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>2</v>
-      </c>
       <c r="AC2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF2" t="n">
         <v>8</v>
       </c>
-      <c r="AF2" t="n">
-        <v>3</v>
-      </c>
       <c r="AG2" t="n">
         <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>71223146.50296113</v>
+        <v>151183698.7153354</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>226798343.3288667</v>
+        <v>97105266.60422453</v>
       </c>
       <c r="AL2" t="n">
         <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>776300000</v>
+        <v>1239600000</v>
       </c>
       <c r="AN2" t="n">
         <v>0</v>
@@ -757,10 +757,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -772,10 +772,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -787,16 +787,16 @@
         <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -805,46 +805,46 @@
         <v>4</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="n">
         <v>8</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1</v>
       </c>
       <c r="U3" t="n">
         <v>5</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AA3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB3" t="n">
         <v>3</v>
       </c>
       <c r="AC3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AE3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AF3" t="n">
         <v>10</v>
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>119076882.1072917</v>
+        <v>218513338.1959243</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>185448500.9550073</v>
+        <v>116004983.7961544</v>
       </c>
       <c r="AL3" t="n">
         <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>729100000</v>
+        <v>868200000</v>
       </c>
       <c r="AN3" t="n">
         <v>0</v>
@@ -879,19 +879,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -903,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -912,7 +912,7 @@
         <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -924,76 +924,76 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
+        <v>6</v>
+      </c>
+      <c r="S4" t="n">
+        <v>9</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>5</v>
+      </c>
+      <c r="W4" t="n">
+        <v>10</v>
+      </c>
+      <c r="X4" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
         <v>8</v>
       </c>
-      <c r="S4" t="n">
-        <v>4</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3</v>
-      </c>
-      <c r="U4" t="n">
-        <v>9</v>
-      </c>
-      <c r="V4" t="n">
-        <v>7</v>
-      </c>
-      <c r="W4" t="n">
+      <c r="AD4" t="n">
         <v>6</v>
       </c>
-      <c r="X4" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>7</v>
-      </c>
       <c r="AE4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AF4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AG4" t="n">
         <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>202196758.0161829</v>
+        <v>219147028.8655044</v>
       </c>
       <c r="AI4" t="n">
         <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>13061163.11233146</v>
       </c>
       <c r="AK4" t="n">
-        <v>302257490.5608148</v>
+        <v>177142338.9340715</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>0.0105927993604612</v>
       </c>
       <c r="AM4" t="n">
-        <v>267200000</v>
+        <v>660100000</v>
       </c>
       <c r="AN4" t="n">
-        <v>350.51185832164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1004,13 +1004,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1031,40 +1031,40 @@
         <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
         <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" t="n">
         <v>5</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>6</v>
@@ -1073,49 +1073,49 @@
         <v>1</v>
       </c>
       <c r="Z5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AA5" t="n">
         <v>8</v>
       </c>
       <c r="AB5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AC5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AD5" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AE5" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AF5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>140190343.5222868</v>
+        <v>131633016.5235835</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>5913641.280531001</v>
+        <v>11405964.91447738</v>
       </c>
       <c r="AK5" t="n">
-        <v>77797112.44472042</v>
+        <v>99685318.93337613</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.0007405028733628648</v>
+        <v>0.01030004342718273</v>
       </c>
       <c r="AM5" t="n">
-        <v>813700000</v>
+        <v>1580300000</v>
       </c>
       <c r="AN5" t="n">
-        <v>226.8944616650049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1126,10 +1126,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1141,16 +1141,16 @@
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1165,53 +1165,53 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>4</v>
       </c>
       <c r="R6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S6" t="n">
         <v>3</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>4</v>
+      </c>
+      <c r="W6" t="n">
+        <v>5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
         <v>2</v>
       </c>
-      <c r="V6" t="n">
-        <v>5</v>
-      </c>
-      <c r="W6" t="n">
-        <v>4</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y6" t="n">
+      <c r="Z6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
         <v>7</v>
       </c>
-      <c r="Z6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>5</v>
-      </c>
       <c r="AF6" t="n">
         <v>4</v>
       </c>
@@ -1219,25 +1219,25 @@
         <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>96223098.04916811</v>
+        <v>203829902.6268574</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>5810488.971942814</v>
+        <v>8215500.561343719</v>
       </c>
       <c r="AK6" t="n">
-        <v>173865304.4842105</v>
+        <v>121314835.7746612</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.0005846761316371583</v>
+        <v>0.0007941578471269777</v>
       </c>
       <c r="AM6" t="n">
-        <v>812900000</v>
+        <v>696900000</v>
       </c>
       <c r="AN6" t="n">
-        <v>1546.186357545469</v>
+        <v>4364.596910900482</v>
       </c>
     </row>
     <row r="7">
@@ -1245,7 +1245,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1254,10 +1254,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1266,16 +1266,16 @@
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1293,55 +1293,55 @@
         <v>4</v>
       </c>
       <c r="R7" t="n">
+        <v>7</v>
+      </c>
+      <c r="S7" t="n">
         <v>10</v>
-      </c>
-      <c r="S7" t="n">
-        <v>9</v>
       </c>
       <c r="T7" t="n">
         <v>9</v>
       </c>
       <c r="U7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC7" t="n">
         <v>10</v>
       </c>
-      <c r="Z7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>6</v>
-      </c>
       <c r="AD7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AF7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AG7" t="n">
         <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>375864791.9427059</v>
+        <v>339416355.6719681</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>112832601.0182171</v>
+        <v>187362096.664377</v>
       </c>
       <c r="AL7" t="n">
         <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>394500000</v>
+        <v>490900000</v>
       </c>
       <c r="AN7" t="n">
-        <v>280.1588185082043</v>
+        <v>2621.361468858318</v>
       </c>
     </row>
     <row r="8">
@@ -1376,7 +1376,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1388,100 +1388,100 @@
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
         <v>5</v>
       </c>
-      <c r="T8" t="n">
-        <v>5</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>4</v>
-      </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y8" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AA8" t="n">
         <v>6</v>
       </c>
       <c r="AB8" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AC8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AF8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
         <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>154539421.8142628</v>
+        <v>42291505.65437629</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9881328.533140641</v>
+        <v>4619802.04205368</v>
       </c>
       <c r="AK8" t="n">
-        <v>53358573.6002109</v>
+        <v>146472816.5114884</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.0009607894744260225</v>
+        <v>0.001365531946033994</v>
       </c>
       <c r="AM8" t="n">
-        <v>741100000</v>
+        <v>958900000</v>
       </c>
       <c r="AN8" t="n">
-        <v>461.1470096150742</v>
+        <v>1613.198350870565</v>
       </c>
     </row>
     <row r="9">
@@ -1489,121 +1489,121 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="n">
+        <v>4</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
         <v>2</v>
       </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>6</v>
-      </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>5</v>
       </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
       <c r="X9" t="n">
         <v>1</v>
       </c>
       <c r="Y9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Z9" t="n">
         <v>7</v>
       </c>
       <c r="AA9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
         <v>5</v>
       </c>
-      <c r="AB9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>4</v>
-      </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE9" t="n">
         <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
         <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>37255203.23710208</v>
+        <v>172107283.1314149</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>4619802.04205368</v>
       </c>
       <c r="AK9" t="n">
-        <v>138724961.8150669</v>
+        <v>148237545.1935545</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>0.0004551773153446647</v>
       </c>
       <c r="AM9" t="n">
-        <v>1134000000</v>
+        <v>741100000</v>
       </c>
       <c r="AN9" t="n">
-        <v>270.237594100162</v>
+        <v>250.5183018666791</v>
       </c>
     </row>
     <row r="10">
@@ -1611,7 +1611,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1620,28 +1620,28 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1659,70 +1659,70 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" t="n">
         <v>9</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
+        <v>9</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>8</v>
+      </c>
+      <c r="W10" t="n">
+        <v>3</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y10" t="n">
         <v>6</v>
       </c>
-      <c r="T10" t="n">
+      <c r="Z10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD10" t="n">
         <v>6</v>
       </c>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>5</v>
-      </c>
       <c r="AE10" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AF10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AG10" t="n">
         <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>267928250.8570225</v>
+        <v>240186565.5276709</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>6916614.109465618</v>
       </c>
       <c r="AK10" t="n">
-        <v>110061574.43849</v>
+        <v>143874485.1889308</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>0.005531498125579153</v>
       </c>
       <c r="AM10" t="n">
-        <v>581600000</v>
+        <v>552300000</v>
       </c>
       <c r="AN10" t="n">
         <v>0</v>
@@ -1736,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1748,28 +1748,28 @@
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1778,58 +1778,58 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U11" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="V11" t="n">
         <v>2</v>
       </c>
       <c r="W11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC11" t="n">
         <v>2</v>
       </c>
-      <c r="Y11" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>4</v>
-      </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG11" t="n">
         <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>83497824.69174261</v>
+        <v>134996357.6629468</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
@@ -1838,16 +1838,16 @@
         <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>181024453.1467112</v>
+        <v>225147866.0208567</v>
       </c>
       <c r="AL11" t="n">
         <v>0</v>
       </c>
       <c r="AM11" t="n">
-        <v>897500000</v>
+        <v>485000000</v>
       </c>
       <c r="AN11" t="n">
-        <v>509.30245186378</v>
+        <v>257.3540095386095</v>
       </c>
     </row>
     <row r="12">
@@ -1855,13 +1855,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1870,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -1879,10 +1879,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1891,67 +1891,67 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R12" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S12" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" t="n">
+        <v>7</v>
+      </c>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA12" t="n">
         <v>2</v>
       </c>
-      <c r="T12" t="n">
-        <v>1</v>
-      </c>
-      <c r="U12" t="n">
+      <c r="AB12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD12" t="n">
         <v>8</v>
       </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>3</v>
-      </c>
-      <c r="X12" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>4</v>
-      </c>
       <c r="AE12" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AF12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG12" t="n">
         <v>0</v>
       </c>
       <c r="AH12" t="n">
-        <v>149071578.869657</v>
+        <v>342972037.7402872</v>
       </c>
       <c r="AI12" t="n">
         <v>0</v>
@@ -1960,16 +1960,16 @@
         <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>143874485.1889308</v>
+        <v>47842699.56310011</v>
       </c>
       <c r="AL12" t="n">
         <v>0</v>
       </c>
       <c r="AM12" t="n">
-        <v>317500000</v>
+        <v>795000000</v>
       </c>
       <c r="AN12" t="n">
-        <v>163.664745802093</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1977,7 +1977,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1995,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -2004,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -2022,76 +2022,564 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V13" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>9</v>
       </c>
       <c r="X13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z13" t="n">
         <v>7</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="AA13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB13" t="n">
         <v>10</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AC13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>108385078.1251955</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>156295954.0347702</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>679700000</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2</v>
+      </c>
+      <c r="U14" t="n">
         <v>6</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="V14" t="n">
+        <v>8</v>
+      </c>
+      <c r="W14" t="n">
+        <v>7</v>
+      </c>
+      <c r="X14" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB14" t="n">
         <v>2</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AC14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>37255203.23710208</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>282827746.4203938</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>983500000</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
         <v>2</v>
       </c>
-      <c r="AC13" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD13" t="n">
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="n">
+        <v>5</v>
+      </c>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>4</v>
+      </c>
+      <c r="X15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y15" t="n">
         <v>10</v>
       </c>
-      <c r="AE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="n">
+      <c r="Z15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF15" t="n">
         <v>5</v>
       </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>42291505.65437629</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>5678310.809945786</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>231810774.1138417</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>0.0005593047235927628</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>781300000</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>307.9460654728043</v>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>101988088.0359518</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>106860238.4866137</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>928200000</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>167798331.6592725</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>13784973.45901523</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>42818415.6714978</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0.001374816539213537</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1422500000</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>773.7978805394374</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>9</v>
+      </c>
+      <c r="T17" t="n">
+        <v>10</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>6</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>278936833.0401134</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>7100348.70977044</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>106547043.0873263</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0.0006990473672782053</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>831600000</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>385.1212638986229</v>
       </c>
     </row>
   </sheetData>
